--- a/data input/Energy costs.xlsx
+++ b/data input/Energy costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game-private\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Zero-energy-system-builder\data input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB94E5F-8C94-4B85-8599-90B1A860D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97770C02-7BA7-4CE2-9E23-E69284C20B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy costs" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="216">
   <si>
     <t>Jaar</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>primary heat source (low)</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>See energievraag en isolatie woningen</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -821,6 +827,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -1159,13 +1166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F23083-9044-45A1-A680-74930665CF4B}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1377,7 +1384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2030</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1662,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2030</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2030</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -2761,7 +2768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2030</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2030</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.83</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.7690000000000001</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>3.6/1000</f>
         <v>3.5999999999999999E-3</v>
@@ -3128,7 +3135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.2</v>
       </c>
@@ -3145,22 +3152,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6D1B4-07BD-4D49-9C71-3B95918C3305}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3186,7 +3193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3264,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3427,6 +3434,32 @@
       </c>
       <c r="I11" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3443,14 +3476,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
@@ -3467,7 +3500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3478,7 +3511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3500,7 +3533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -3511,7 +3544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3522,7 +3555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -3533,13 +3566,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>154</v>
       </c>
@@ -3553,7 +3586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
@@ -3567,7 +3600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>154</v>
       </c>
@@ -3581,14 +3614,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>158</v>
       </c>
@@ -3602,7 +3635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>158</v>
       </c>
@@ -3616,7 +3649,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>158</v>
       </c>
@@ -3630,7 +3663,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>213</v>
       </c>
@@ -3644,7 +3677,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>159</v>
       </c>
@@ -3661,7 +3694,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -3678,7 +3711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -3692,7 +3725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>162</v>
       </c>
@@ -3709,7 +3742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>127</v>
       </c>
@@ -3723,7 +3756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>153</v>
       </c>
@@ -3737,7 +3770,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>151</v>
       </c>
@@ -3751,7 +3784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>152</v>
       </c>
@@ -3765,7 +3798,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>130</v>
       </c>
@@ -3779,7 +3812,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>131</v>
       </c>
@@ -3793,7 +3826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -3807,7 +3840,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>129</v>
       </c>
@@ -3821,7 +3854,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3830,7 +3863,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>150</v>
       </c>
@@ -3847,7 +3880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -3864,7 +3897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>150</v>
       </c>
@@ -3881,7 +3914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>137</v>
       </c>
@@ -3898,7 +3931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
@@ -3915,7 +3948,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>138</v>
       </c>
@@ -3932,7 +3965,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3949,7 +3982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -3966,7 +3999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -3983,7 +4016,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -4000,7 +4033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4018,7 +4051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -4035,7 +4068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -4052,7 +4085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -4069,7 +4102,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -4086,7 +4119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -4103,7 +4136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -4121,7 +4154,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -4139,7 +4172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -4156,7 +4189,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -4180,12 +4213,12 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -4262,7 +4295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4336,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -4410,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -4484,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4561,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -4638,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -4715,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4792,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -4869,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -4943,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -5017,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -5091,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -5165,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -5239,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -5313,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5390,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5464,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -5538,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -5615,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -5692,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -5766,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -5843,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -5920,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -5997,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -6074,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6151,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6242,9 +6275,9 @@
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -6336,7 +6369,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -6353,7 +6386,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -6370,7 +6403,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -6387,7 +6420,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -6404,7 +6437,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -6421,7 +6454,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -6438,7 +6471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -6455,7 +6488,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -6472,7 +6505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -6489,7 +6522,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -6506,7 +6539,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -6514,7 +6547,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>204</v>
       </c>
@@ -6606,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -6698,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>206</v>
       </c>
@@ -6790,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -6867,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -6932,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -6997,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
